--- a/7/2/2/2/2/2/Compañías de seguros 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/2/Compañías de seguros 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Serie</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6519,25 +6522,25 @@
         <v>98</v>
       </c>
       <c r="B74">
-        <v>-158</v>
+        <v>-178</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>-87</v>
       </c>
       <c r="D74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>-119</v>
       </c>
       <c r="F74">
-        <v>-148</v>
+        <v>-12</v>
       </c>
       <c r="G74">
         <v>58</v>
       </c>
       <c r="H74">
-        <v>-205</v>
+        <v>-69</v>
       </c>
       <c r="I74">
         <v>-18</v>
@@ -6546,40 +6549,40 @@
         <v>-18</v>
       </c>
       <c r="K74">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="L74">
-        <v>-52</v>
+        <v>-47</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>-31</v>
       </c>
       <c r="N74">
         <v>227</v>
       </c>
       <c r="O74">
-        <v>-224</v>
+        <v>-211</v>
       </c>
       <c r="P74">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q74">
-        <v>-232</v>
+        <v>-259</v>
       </c>
       <c r="R74">
-        <v>-140</v>
+        <v>-144</v>
       </c>
       <c r="S74">
         <v>-103</v>
       </c>
       <c r="T74">
-        <v>-37</v>
+        <v>-41</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W74">
         <v>40</v>
@@ -6591,7 +6594,87 @@
         <v>-4</v>
       </c>
       <c r="Z74">
-        <v>-133</v>
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75">
+        <v>-686</v>
+      </c>
+      <c r="C75">
+        <v>-95</v>
+      </c>
+      <c r="D75">
+        <v>-31</v>
+      </c>
+      <c r="E75">
+        <v>-64</v>
+      </c>
+      <c r="F75">
+        <v>-663</v>
+      </c>
+      <c r="G75">
+        <v>-35</v>
+      </c>
+      <c r="H75">
+        <v>-628</v>
+      </c>
+      <c r="I75">
+        <v>136</v>
+      </c>
+      <c r="J75">
+        <v>136</v>
+      </c>
+      <c r="K75">
+        <v>-196</v>
+      </c>
+      <c r="L75">
+        <v>-106</v>
+      </c>
+      <c r="M75">
+        <v>-20</v>
+      </c>
+      <c r="N75">
+        <v>-69</v>
+      </c>
+      <c r="O75">
+        <v>132</v>
+      </c>
+      <c r="P75">
+        <v>-93</v>
+      </c>
+      <c r="Q75">
+        <v>-592</v>
+      </c>
+      <c r="R75">
+        <v>119</v>
+      </c>
+      <c r="S75">
+        <v>88</v>
+      </c>
+      <c r="T75">
+        <v>31</v>
+      </c>
+      <c r="U75">
+        <v>41</v>
+      </c>
+      <c r="V75">
+        <v>41</v>
+      </c>
+      <c r="W75">
+        <v>-560</v>
+      </c>
+      <c r="X75">
+        <v>-520</v>
+      </c>
+      <c r="Y75">
+        <v>-40</v>
+      </c>
+      <c r="Z75">
+        <v>-193</v>
       </c>
     </row>
   </sheetData>
